--- a/Data/Copy of GOT_character_predictions_@#$%T.xlsx
+++ b/Data/Copy of GOT_character_predictions_@#$%T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Hult\Machine Learning\Assignments\Assignment - 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9913AB1EDAE97B9551612A20F7ACFD2EE46C7B6B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{071D342E-6AA9-4E9E-8364-7CC18F98B7BB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9913AB1EDAE97B9551612A20F7ACFD2EE46C7B6B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4990A9B9-F640-4F63-AC8F-73B081F73776}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5452" uniqueCount="2715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="2716">
   <si>
     <t>S.No</t>
   </si>
@@ -8176,6 +8176,9 @@
   </si>
   <si>
     <t>Omer Florent</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -8503,10 +8506,10 @@
   <dimension ref="A1:Z1947"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H1030" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1050" sqref="L1050:P1050"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9186,6 +9189,9 @@
       <c r="B12" t="s">
         <v>2083</v>
       </c>
+      <c r="C12" t="s">
+        <v>2715</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -9230,6 +9236,9 @@
       <c r="B13" t="s">
         <v>1351</v>
       </c>
+      <c r="C13" t="s">
+        <v>2715</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -9271,6 +9280,9 @@
       <c r="B14" t="s">
         <v>1620</v>
       </c>
+      <c r="C14" t="s">
+        <v>2715</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -9312,6 +9324,9 @@
       <c r="B15" t="s">
         <v>2147</v>
       </c>
+      <c r="C15" t="s">
+        <v>2715</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -9356,6 +9371,9 @@
       <c r="B16" t="s">
         <v>845</v>
       </c>
+      <c r="C16" t="s">
+        <v>2715</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -9400,6 +9418,9 @@
       <c r="B17" t="s">
         <v>1281</v>
       </c>
+      <c r="C17" t="s">
+        <v>2715</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -9446,6 +9467,9 @@
       </c>
       <c r="B18" t="s">
         <v>1791</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2715</v>
       </c>
       <c r="D18">
         <v>1</v>
